--- a/data/trans_orig/P33B_R5-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P33B_R5-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>65803</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>52764</v>
+        <v>52617</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>81428</v>
+        <v>83963</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1319393281270841</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1057938284487211</v>
+        <v>0.1054997968587398</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1632678046554516</v>
+        <v>0.1683496282180177</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>213</v>
@@ -762,19 +762,19 @@
         <v>135148</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>118383</v>
+        <v>118665</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>151281</v>
+        <v>152006</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2167289260244817</v>
+        <v>0.2167289260244816</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1898448680940043</v>
+        <v>0.1902957398766348</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2426010362992912</v>
+        <v>0.2437638248509177</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>283</v>
@@ -783,19 +783,19 @@
         <v>200951</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>176746</v>
+        <v>176659</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>224073</v>
+        <v>225806</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1790499014749448</v>
+        <v>0.1790499014749447</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1574827181090784</v>
+        <v>0.1574052789253211</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1996516403442041</v>
+        <v>0.2011960633787076</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>432936</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>417311</v>
+        <v>414776</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>445975</v>
+        <v>446122</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8680606718729158</v>
+        <v>0.8680606718729159</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8367321953445483</v>
+        <v>0.8316503717819822</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8942061715512789</v>
+        <v>0.8945002031412602</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>648</v>
@@ -833,19 +833,19 @@
         <v>488432</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>472299</v>
+        <v>471574</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>505197</v>
+        <v>504915</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7832710739755182</v>
+        <v>0.7832710739755183</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7573989637007088</v>
+        <v>0.7562361751490821</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8101551319059955</v>
+        <v>0.8097042601233653</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1033</v>
@@ -854,19 +854,19 @@
         <v>921369</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>898247</v>
+        <v>896514</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>945574</v>
+        <v>945661</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8209500985250552</v>
+        <v>0.8209500985250553</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8003483596557958</v>
+        <v>0.7988039366212925</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8425172818909215</v>
+        <v>0.8425947210746789</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>74009</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>59142</v>
+        <v>59585</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>88934</v>
+        <v>90587</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07708123530419818</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06159762212661986</v>
+        <v>0.06205834411898654</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.092625950928532</v>
+        <v>0.09434785318099624</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>283</v>
@@ -979,19 +979,19 @@
         <v>172568</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>152235</v>
+        <v>155391</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>193524</v>
+        <v>191433</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1547442531050944</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1365111779432705</v>
+        <v>0.1393417445547152</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1735362921192069</v>
+        <v>0.1716609645047177</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>379</v>
@@ -1000,19 +1000,19 @@
         <v>246576</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>224584</v>
+        <v>220720</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>275897</v>
+        <v>272677</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1188137901489294</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1082169241855345</v>
+        <v>0.1063548217133849</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1329422240129804</v>
+        <v>0.1313904297496198</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>886128</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>871203</v>
+        <v>869550</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>900995</v>
+        <v>900552</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9229187646958019</v>
+        <v>0.9229187646958018</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9073740490714681</v>
+        <v>0.9056521468190036</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9384023778733803</v>
+        <v>0.9379416558810135</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1323</v>
@@ -1050,19 +1050,19 @@
         <v>942613</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>921657</v>
+        <v>923748</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>962946</v>
+        <v>959790</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8452557468949056</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8264637078807929</v>
+        <v>0.8283390354952821</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8634888220567294</v>
+        <v>0.860658255445285</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2137</v>
@@ -1071,19 +1071,19 @@
         <v>1828741</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1799420</v>
+        <v>1802640</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1850733</v>
+        <v>1854597</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8811862098510705</v>
+        <v>0.8811862098510704</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8670577759870193</v>
+        <v>0.8686095702503802</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8917830758144655</v>
+        <v>0.893645178286615</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>56659</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44874</v>
+        <v>44704</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>71305</v>
+        <v>73563</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05414266158731621</v>
+        <v>0.05414266158731622</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04288065164484776</v>
+        <v>0.04271886601855745</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06813756641878699</v>
+        <v>0.07029550857018836</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>154</v>
@@ -1196,19 +1196,19 @@
         <v>95721</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>80819</v>
+        <v>79727</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>113267</v>
+        <v>111946</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.09136808367048926</v>
+        <v>0.09136808367048928</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07714411745576247</v>
+        <v>0.07610162588858123</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.108116192748565</v>
+        <v>0.1068552431389019</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>227</v>
@@ -1217,19 +1217,19 @@
         <v>152380</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>130837</v>
+        <v>130725</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>175530</v>
+        <v>173583</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07276570375158307</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06247817081357371</v>
+        <v>0.0624247194228861</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08382014702587873</v>
+        <v>0.08289073513407033</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>989820</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>975174</v>
+        <v>972916</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1001605</v>
+        <v>1001775</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9458573384126837</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.931862433581213</v>
+        <v>0.9297044914298116</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9571193483551522</v>
+        <v>0.9572811339814425</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1362</v>
@@ -1267,19 +1267,19 @@
         <v>951921</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>934375</v>
+        <v>935696</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>966823</v>
+        <v>967915</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9086319163295108</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8918838072514348</v>
+        <v>0.8931447568610982</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9228558825442371</v>
+        <v>0.9238983741114186</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2318</v>
@@ -1288,19 +1288,19 @@
         <v>1941741</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1918591</v>
+        <v>1920538</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1963284</v>
+        <v>1963396</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9272342962484169</v>
+        <v>0.927234296248417</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9161798529741212</v>
+        <v>0.9171092648659296</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9375218291864262</v>
+        <v>0.9375752805771138</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>39244</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28802</v>
+        <v>28493</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55653</v>
+        <v>55332</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04021189145141176</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02951238315537335</v>
+        <v>0.02919555980657543</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05702570295962262</v>
+        <v>0.05669649009022469</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>108</v>
@@ -1413,19 +1413,19 @@
         <v>67621</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>55470</v>
+        <v>56212</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>82089</v>
+        <v>80908</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07445222718624031</v>
+        <v>0.0744522271862403</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06107350579909189</v>
+        <v>0.06189004914725702</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09038133272290712</v>
+        <v>0.0890809973949125</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>149</v>
@@ -1434,19 +1434,19 @@
         <v>106865</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>89224</v>
+        <v>89679</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>127985</v>
+        <v>126201</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05671711444735135</v>
+        <v>0.05671711444735133</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04735431549551102</v>
+        <v>0.04759579040917046</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06792629406261211</v>
+        <v>0.06697920850217635</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>936685</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>920276</v>
+        <v>920597</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>947127</v>
+        <v>947436</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9597881085485882</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9429742970403773</v>
+        <v>0.9433035099097752</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9704876168446267</v>
+        <v>0.9708044401934246</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1212</v>
@@ -1484,19 +1484,19 @@
         <v>840630</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>826162</v>
+        <v>827343</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>852781</v>
+        <v>852039</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9255477728137597</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9096186672770928</v>
+        <v>0.9109190026050875</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.938926494200908</v>
+        <v>0.938109950852743</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2118</v>
@@ -1505,19 +1505,19 @@
         <v>1777315</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1756195</v>
+        <v>1757979</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1794956</v>
+        <v>1794501</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9432828855526487</v>
+        <v>0.9432828855526486</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9320737059373879</v>
+        <v>0.9330207914978238</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9526456845044889</v>
+        <v>0.9524042095908295</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>235715</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>206591</v>
+        <v>209731</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>265688</v>
+        <v>264861</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.06770920063708909</v>
+        <v>0.06770920063708907</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05934330976841985</v>
+        <v>0.06024538256958082</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07631906511360573</v>
+        <v>0.07608139422753106</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>758</v>
@@ -1630,19 +1630,19 @@
         <v>471058</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>432527</v>
+        <v>437114</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>504069</v>
+        <v>504947</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1274972094906385</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1170684892555753</v>
+        <v>0.1183099328535601</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1364320503166983</v>
+        <v>0.1366696635074167</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1038</v>
@@ -1651,19 +1651,19 @@
         <v>706773</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>660002</v>
+        <v>657237</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>749854</v>
+        <v>752394</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0984920711276753</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09197436737667439</v>
+        <v>0.09158902786878823</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1044955489924797</v>
+        <v>0.1048495498936602</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3245569</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3215596</v>
+        <v>3216423</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3274693</v>
+        <v>3271553</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9322907993629109</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9236809348863941</v>
+        <v>0.9239186057724689</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9406566902315803</v>
+        <v>0.9397546174304192</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4545</v>
@@ -1701,19 +1701,19 @@
         <v>3223595</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3190584</v>
+        <v>3189706</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3262126</v>
+        <v>3257539</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8725027905093615</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8635679496833017</v>
+        <v>0.8633303364925833</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.882931510744425</v>
+        <v>0.8816900671464395</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7606</v>
@@ -1722,19 +1722,19 @@
         <v>6469165</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6426084</v>
+        <v>6423544</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6515936</v>
+        <v>6518701</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9015079288723247</v>
+        <v>0.9015079288723246</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8955044510075204</v>
+        <v>0.89515045010634</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9080256326233257</v>
+        <v>0.9084109721312115</v>
       </c>
     </row>
     <row r="18">
